--- a/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\SU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Documents\GitHub\STUF2019\CR - Cost Report\BOM\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>System</t>
   </si>
@@ -60,18 +60,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <t>Anti roll bar front</t>
   </si>
   <si>
@@ -122,11 +110,47 @@
   <si>
     <t>SU_15004</t>
   </si>
+  <si>
+    <t>Torsion Bar</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Bearing Support</t>
+  </si>
+  <si>
+    <t>End Plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet of metal </t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacer </t>
+  </si>
+  <si>
+    <t>Rod used for the anti roll bar</t>
+  </si>
+  <si>
+    <t>M6 type 16 mm spacer</t>
+  </si>
+  <si>
+    <t>Aluminium tube</t>
+  </si>
+  <si>
+    <t>SU_15005</t>
+  </si>
+  <si>
+    <t>Aluminium tube for the ARB rod</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,26 +553,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -571,186 +595,201 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>System</t>
   </si>
@@ -145,6 +145,36 @@
   </si>
   <si>
     <t>Aluminium tube for the ARB rod</t>
+  </si>
+  <si>
+    <t>Sheet of metal (right and left side)</t>
+  </si>
+  <si>
+    <t>Rod ends bearing</t>
+  </si>
+  <si>
+    <t>Spherical plain bearings</t>
+  </si>
+  <si>
+    <t>Used in the bearing support</t>
+  </si>
+  <si>
+    <t>SU_14006</t>
+  </si>
+  <si>
+    <t>SU_14005</t>
+  </si>
+  <si>
+    <t>SU_15006</t>
+  </si>
+  <si>
+    <t>SU_15007</t>
+  </si>
+  <si>
+    <t>2 with a left-hand thread &amp; 2  with a right-hand thread (used for the ARB rod)</t>
+  </si>
+  <si>
+    <t>2 male thread &amp; 2 female thread (used for the ARB rod)</t>
   </si>
 </sst>
 </file>
@@ -553,11 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4">
         <v>4</v>
@@ -669,13 +699,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -684,112 +714,188 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>30</v>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>System</t>
   </si>
@@ -117,9 +117,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Bearing Support</t>
-  </si>
-  <si>
     <t>End Plate</t>
   </si>
   <si>
@@ -147,18 +144,12 @@
     <t>Aluminium tube for the ARB rod</t>
   </si>
   <si>
-    <t>Sheet of metal (right and left side)</t>
-  </si>
-  <si>
     <t>Rod ends bearing</t>
   </si>
   <si>
     <t>Spherical plain bearings</t>
   </si>
   <si>
-    <t>Used in the bearing support</t>
-  </si>
-  <si>
     <t>SU_14006</t>
   </si>
   <si>
@@ -175,6 +166,21 @@
   </si>
   <si>
     <t>2 male thread &amp; 2 female thread (used for the ARB rod)</t>
+  </si>
+  <si>
+    <t>Left Bearing Support</t>
+  </si>
+  <si>
+    <t>Right Bearing Support</t>
+  </si>
+  <si>
+    <t>SU_14007</t>
+  </si>
+  <si>
+    <t>SU_15008</t>
+  </si>
+  <si>
+    <t>Used in the bearing supports</t>
   </si>
 </sst>
 </file>
@@ -583,11 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -663,14 +669,14 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -680,16 +686,14 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
@@ -699,13 +703,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -718,184 +722,220 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4">
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>39</v>
+      <c r="G17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Documents\GitHub\STUF2019\CR - Cost Report\BOM\SU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>System</t>
   </si>
@@ -135,18 +135,12 @@
     <t>M6 type 16 mm spacer</t>
   </si>
   <si>
-    <t>Aluminium tube</t>
-  </si>
-  <si>
     <t>SU_15005</t>
   </si>
   <si>
     <t>Aluminium tube for the ARB rod</t>
   </si>
   <si>
-    <t>Rod ends bearing</t>
-  </si>
-  <si>
     <t>Spherical plain bearings</t>
   </si>
   <si>
@@ -159,15 +153,6 @@
     <t>SU_15006</t>
   </si>
   <si>
-    <t>SU_15007</t>
-  </si>
-  <si>
-    <t>2 with a left-hand thread &amp; 2  with a right-hand thread (used for the ARB rod)</t>
-  </si>
-  <si>
-    <t>2 male thread &amp; 2 female thread (used for the ARB rod)</t>
-  </si>
-  <si>
     <t>Left Bearing Support</t>
   </si>
   <si>
@@ -181,12 +166,45 @@
   </si>
   <si>
     <t>Used in the bearing supports</t>
+  </si>
+  <si>
+    <t>SU_15009</t>
+  </si>
+  <si>
+    <t>Aluminium tapped tube</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, male</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, female</t>
+  </si>
+  <si>
+    <t>2 male thread, ARB rod, right hand thread</t>
+  </si>
+  <si>
+    <t>2 female thread, ARB rod, right hand thread</t>
+  </si>
+  <si>
+    <t>2 with a left-hand thread, ARB rod</t>
+  </si>
+  <si>
+    <t>Outside diameter of the SU_15009</t>
+  </si>
+  <si>
+    <t>Outside diameter of the SU_14007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 with a right-hand thread, ARB rod </t>
+  </si>
+  <si>
+    <t>SU_14008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,26 +607,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="45.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -646,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -665,16 +683,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
@@ -682,16 +702,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
@@ -699,7 +721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -718,224 +740,266 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F16" s="4">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>System</t>
   </si>
@@ -174,12 +174,6 @@
     <t>Aluminium tapped tube</t>
   </si>
   <si>
-    <t>Rod ends bearing, male</t>
-  </si>
-  <si>
-    <t>Rod ends bearing, female</t>
-  </si>
-  <si>
     <t>2 male thread, ARB rod, right hand thread</t>
   </si>
   <si>
@@ -199,6 +193,15 @@
   </si>
   <si>
     <t>SU_14008</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, male l</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, male r</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, female r</t>
   </si>
 </sst>
 </file>
@@ -611,14 +614,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="42.21875" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
@@ -693,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -712,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -744,13 +747,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -763,13 +766,13 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -813,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -860,7 +863,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -879,7 +882,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -930,13 +933,13 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -949,13 +952,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>

--- a/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>System</t>
   </si>
@@ -165,9 +165,6 @@
     <t>SU_15008</t>
   </si>
   <si>
-    <t>Used in the bearing supports</t>
-  </si>
-  <si>
     <t>SU_15009</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>Rod ends bearing, female r</t>
+  </si>
+  <si>
+    <t>Used in the bearing supports, M12</t>
+  </si>
+  <si>
+    <t>SU_15007</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +699,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -715,7 +718,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -747,13 +750,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -766,13 +769,13 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -791,7 +794,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -816,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -863,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -933,13 +936,13 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -952,19 +955,19 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -977,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -990,7 +993,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>24</v>
@@ -1002,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA1400_SUA1500.xlsx
@@ -81,12 +81,6 @@
     </r>
   </si>
   <si>
-    <t>SU_A0014</t>
-  </si>
-  <si>
-    <t>SU_A0015</t>
-  </si>
-  <si>
     <t>SU_14001</t>
   </si>
   <si>
@@ -205,6 +199,12 @@
   </si>
   <si>
     <t>SU_15007</t>
+  </si>
+  <si>
+    <t>SU_A1400</t>
+  </si>
+  <si>
+    <t>SU_A1500</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,159 +667,159 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -834,178 +834,178 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F16" s="4">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
